--- a/output/fit_clients/fit_round_443.xlsx
+++ b/output/fit_clients/fit_round_443.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1822808576.794699</v>
+        <v>1807433991.521393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09140719686440843</v>
+        <v>0.09895207206896479</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02832333820539822</v>
+        <v>0.02898973366050594</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>911404260.2026919</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2005086432.58125</v>
+        <v>1975731059.21079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1432152136086671</v>
+        <v>0.1148165947831977</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04543206849220997</v>
+        <v>0.04913395318498703</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1002543257.150516</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3259588696.268909</v>
+        <v>4345515554.56944</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1311390212566202</v>
+        <v>0.1289008050961195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03381306281736356</v>
+        <v>0.02358171547616906</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>160</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1629794309.890431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2993796545.450954</v>
+        <v>2874907903.807294</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08248240828567156</v>
+        <v>0.08174335426196259</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03737784893330878</v>
+        <v>0.05017540852237051</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>164</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1496898343.037193</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2260457799.957111</v>
+        <v>2544511750.803347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1099315900277194</v>
+        <v>0.1179060618608253</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05263474951816897</v>
+        <v>0.0350680792168055</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1130228901.40322</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2980527460.974516</v>
+        <v>2790625196.96077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07095475597392584</v>
+        <v>0.0906797991905785</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03334245848178521</v>
+        <v>0.04808637777618315</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>139</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1490263697.283065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3191662624.674181</v>
+        <v>2813546564.546451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1714007806550332</v>
+        <v>0.2167978430810952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02167506478192108</v>
+        <v>0.02813192120622613</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>141</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1595831389.462569</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1404544527.108689</v>
+        <v>2297971128.304731</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1332329722711141</v>
+        <v>0.1567938530816401</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03464374482534563</v>
+        <v>0.03525004091079181</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>702272372.7938786</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4379988750.015062</v>
+        <v>3626155006.632194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.166408915955643</v>
+        <v>0.1862495720445548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04260757395501721</v>
+        <v>0.0391996411887678</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>186</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2189994426.313111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3700367279.165746</v>
+        <v>4136922951.902419</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1682386600978684</v>
+        <v>0.165157231161277</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03891491177614954</v>
+        <v>0.03744957787995287</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>183</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1850183631.386001</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3058699539.286339</v>
+        <v>3015446157.440174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1719926491525831</v>
+        <v>0.1678958666193401</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0421455873235372</v>
+        <v>0.04276041099686527</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1529349793.052848</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5322082536.31827</v>
+        <v>3949361833.780095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09755718638831443</v>
+        <v>0.0667069759112953</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0276904816442414</v>
+        <v>0.02985004165941139</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>149</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2661041255.95634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2457551503.703509</v>
+        <v>2949567916.33649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1395459291432316</v>
+        <v>0.1344629085252247</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02701267660437831</v>
+        <v>0.03273237155226306</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>142</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1228775825.589876</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1527230179.133833</v>
+        <v>1811138914.355146</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07612875473046939</v>
+        <v>0.0847718573645124</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04101518633593548</v>
+        <v>0.0307422613174352</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>763615181.2574869</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2292014648.591021</v>
+        <v>2232447781.598215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1106604239566607</v>
+        <v>0.09428967744615138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04236750077526732</v>
+        <v>0.03329315210803608</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1146007373.70895</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4540746610.315224</v>
+        <v>4831144288.748992</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1528319013644809</v>
+        <v>0.1091691667696968</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03903940757851136</v>
+        <v>0.04056105326686177</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>132</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2270373313.004124</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3305419742.580318</v>
+        <v>3829323844.532051</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1849735652903473</v>
+        <v>0.1292635928806793</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02340929764409747</v>
+        <v>0.03068680380728462</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>145</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1652709879.414126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1371801314.202744</v>
+        <v>1365837397.563318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1453018023536911</v>
+        <v>0.168445545505975</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0183546280283539</v>
+        <v>0.01925745350524261</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>685900776.8919406</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2326146019.682189</v>
+        <v>1765801722.855973</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1584423505516288</v>
+        <v>0.1089389729640843</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02366488687806395</v>
+        <v>0.02399904850283129</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1163073001.464831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2590532005.850671</v>
+        <v>1738118204.167602</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07689772236979253</v>
+        <v>0.07993071657037351</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03689267245852403</v>
+        <v>0.04324587443292935</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1295265982.40986</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2770973298.689997</v>
+        <v>2850463679.791438</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111626941738578</v>
+        <v>0.09482938274371301</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03688340160272729</v>
+        <v>0.04775736831048424</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>123</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1385486724.610506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1467115478.283221</v>
+        <v>1295392049.980022</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1153569719479988</v>
+        <v>0.1837670788335977</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04187134748353728</v>
+        <v>0.04188543358277744</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>733557730.6338151</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3769188333.107539</v>
+        <v>2894573313.973275</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1214618564133284</v>
+        <v>0.1277933226206632</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02427791368993455</v>
+        <v>0.0328964597738576</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>130</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1884594150.073341</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1211036307.271191</v>
+        <v>1336177328.643202</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09851868240470411</v>
+        <v>0.07678043844188182</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02543117966416673</v>
+        <v>0.01985791069427726</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>605518169.0883566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>941860788.2766528</v>
+        <v>904699679.6283699</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09356748364908199</v>
+        <v>0.1115622716697126</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03018897668063845</v>
+        <v>0.0283447474550404</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>470930352.0599021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4339870551.16354</v>
+        <v>4597158253.692529</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1257638773523011</v>
+        <v>0.1206260083573355</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02281735150966234</v>
+        <v>0.02429479567724143</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2169935268.858644</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3059158577.200415</v>
+        <v>2744281059.261476</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1377836495936867</v>
+        <v>0.1330225075790085</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04462102670855242</v>
+        <v>0.03172228519610473</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1529579304.981144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3800682090.131003</v>
+        <v>4797096690.84833</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1039439272079082</v>
+        <v>0.1250104235809373</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04624182304338043</v>
+        <v>0.03410089965440025</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>196</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1900341075.744231</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2067751313.492792</v>
+        <v>1623816082.011504</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1172094604849666</v>
+        <v>0.113148961461495</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03031616063532455</v>
+        <v>0.02992572539222926</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1033875701.940915</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1090152792.540776</v>
+        <v>1087982113.703821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1050123256874257</v>
+        <v>0.07236220019702538</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04800930765536349</v>
+        <v>0.0498184225142412</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>545076373.6010549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1145267591.752427</v>
+        <v>1454282590.810793</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09329294681756112</v>
+        <v>0.1105660052269497</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03598228054621559</v>
+        <v>0.03220021617030109</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>572633790.7822851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2142198875.262384</v>
+        <v>2954418614.891173</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1998512535935842</v>
+        <v>0.1349558586865378</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05685453977230124</v>
+        <v>0.05957631228680768</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>136</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1071099506.331025</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259726993.003507</v>
+        <v>1438367142.505535</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09232706986361978</v>
+        <v>0.07869616751297048</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02002737783076026</v>
+        <v>0.02192085499300022</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>629863491.7508624</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1222631428.569869</v>
+        <v>1238224075.651833</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09858823125083897</v>
+        <v>0.1137126168588991</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04031661862422928</v>
+        <v>0.0441812401341514</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>611315684.081514</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2386610164.964178</v>
+        <v>2410481990.490755</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1565975683923315</v>
+        <v>0.1103469819442834</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02316346043400841</v>
+        <v>0.01956175195657808</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1193305113.578778</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2205196520.987313</v>
+        <v>1997623139.478291</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09293659078079246</v>
+        <v>0.1060483270226923</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02858634397928981</v>
+        <v>0.03790219460245299</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1102598316.026987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1807898260.68291</v>
+        <v>1377854946.547849</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1118468239351515</v>
+        <v>0.118451410258871</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03928000816285322</v>
+        <v>0.03083604435317754</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>903949136.1288204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1949107502.351081</v>
+        <v>1593324369.320274</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1872553240214063</v>
+        <v>0.183909091514228</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02996223407250864</v>
+        <v>0.02873146305892443</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>974553753.4914392</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1339768714.876619</v>
+        <v>1175305252.933896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1274951718491699</v>
+        <v>0.1169072918138605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04978836158800536</v>
+        <v>0.0385033381556077</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>669884363.7669759</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2546469228.719063</v>
+        <v>2311247045.790641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1147829009873584</v>
+        <v>0.1029283080246484</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04363191584239087</v>
+        <v>0.04304253156715829</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1273234635.109734</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3039480690.877886</v>
+        <v>2896016476.129431</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1193836145260229</v>
+        <v>0.07933515632393748</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03450852963892799</v>
+        <v>0.03391208242818843</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1519740308.619816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2891124631.7274</v>
+        <v>1883853559.903505</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1786368828446175</v>
+        <v>0.1884127467199436</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0220741550904365</v>
+        <v>0.02106476798261378</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>153</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1445562325.220565</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1588980957.667157</v>
+        <v>1871249793.669954</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07134582651271806</v>
+        <v>0.0766520193427819</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0324902200502474</v>
+        <v>0.03226957159032992</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>794490503.1932278</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2316951593.59202</v>
+        <v>2046668196.071838</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1699427791982595</v>
+        <v>0.168839846781422</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05613636281091457</v>
+        <v>0.05319580184245942</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1158475819.629672</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5416897987.803644</v>
+        <v>3858645833.260921</v>
       </c>
       <c r="F46" t="n">
-        <v>0.147413131902404</v>
+        <v>0.1612667276469015</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04807669628450576</v>
+        <v>0.05866658264068906</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>158</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2708449044.58814</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3845521823.646072</v>
+        <v>4889774413.304535</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1237316039746868</v>
+        <v>0.1516507865100679</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04186065158499073</v>
+        <v>0.05620420626932714</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1922760902.260094</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3166200777.257411</v>
+        <v>3342805677.210055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07808903185551061</v>
+        <v>0.104117216506789</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03439953535758376</v>
+        <v>0.02944251146475987</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1583100471.480289</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1614487515.997559</v>
+        <v>1442963176.373026</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1360785842586591</v>
+        <v>0.1367754156192729</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03574047688235224</v>
+        <v>0.02706876146380771</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>807243772.2525337</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3806901989.616945</v>
+        <v>4094831193.01154</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645153521517871</v>
+        <v>0.1738324439588777</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03730134026728785</v>
+        <v>0.04819493540181557</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>151</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1903450997.240079</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1456131926.484527</v>
+        <v>1313448108.414673</v>
       </c>
       <c r="F51" t="n">
-        <v>0.185909301000713</v>
+        <v>0.1533915869536404</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04236063840433432</v>
+        <v>0.04126689246192944</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>728065973.3056653</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3780265950.383721</v>
+        <v>4093350055.93019</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1231500629124772</v>
+        <v>0.09602015188610753</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04923079926726989</v>
+        <v>0.04188736323376083</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>183</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1890133044.617888</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2658762073.286179</v>
+        <v>2560939938.014704</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1667685168114157</v>
+        <v>0.1496014198954225</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02580331933011641</v>
+        <v>0.0252124986010015</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1329381092.687675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3244561846.991114</v>
+        <v>3672065019.564032</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1687894474463063</v>
+        <v>0.1079639761286524</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04940378344504743</v>
+        <v>0.03480543478126934</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1622280928.267239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4875550969.566453</v>
+        <v>4723074783.633965</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2239763804981681</v>
+        <v>0.1993583319169941</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02561869749074766</v>
+        <v>0.01964280890817462</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2437775498.335526</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1207544096.781638</v>
+        <v>1667036804.715765</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1510179269932519</v>
+        <v>0.1210563266246166</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05338358427040844</v>
+        <v>0.04621691452719957</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>603772134.0098979</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3682905647.53654</v>
+        <v>4390846064.794575</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1351537163742287</v>
+        <v>0.1356910089937623</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01769948213371311</v>
+        <v>0.02213790300869112</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>141</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1841452885.529998</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1899540026.850718</v>
+        <v>1400987081.276945</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1328684510076531</v>
+        <v>0.1326107439404806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02554159351190119</v>
+        <v>0.03773537306338765</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>949770008.1229227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5117884640.640421</v>
+        <v>4579356277.497283</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1068052257039437</v>
+        <v>0.1281559237898097</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04707075652025725</v>
+        <v>0.03356876579524489</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>121</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2558942242.3619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3063102198.941159</v>
+        <v>3564452262.65772</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1346732757597318</v>
+        <v>0.1614384153522776</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02834976825164843</v>
+        <v>0.02307632479781956</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>137</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1531551176.461025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2695397996.117826</v>
+        <v>2214358907.213855</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1087665349812973</v>
+        <v>0.1458192226166568</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0233026954597452</v>
+        <v>0.02037422596523313</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>152</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1347699007.267271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1803027647.850052</v>
+        <v>1425745805.098478</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1182311385854537</v>
+        <v>0.1748990026192121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03879125478372639</v>
+        <v>0.04311074049468191</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>901513852.4721153</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3377834440.979632</v>
+        <v>3587747863.589335</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09501989792195101</v>
+        <v>0.08612007420371989</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04747954733967083</v>
+        <v>0.04169802636599312</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>126</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1688917310.654957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4222206303.470631</v>
+        <v>4033741114.026139</v>
       </c>
       <c r="F64" t="n">
-        <v>0.179931680851361</v>
+        <v>0.162011635393138</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03264299459174551</v>
+        <v>0.02531717333694017</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>138</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2111103203.236045</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4010827025.910578</v>
+        <v>3818938541.739594</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1556094544133415</v>
+        <v>0.1689966792946739</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02256945302326847</v>
+        <v>0.03128976569134692</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>159</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2005413530.920082</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4349036876.801613</v>
+        <v>5652504625.941548</v>
       </c>
       <c r="F66" t="n">
-        <v>0.148039756339967</v>
+        <v>0.1353763908916771</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04873969429789405</v>
+        <v>0.04413817841231652</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2174518430.740932</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3054213382.024715</v>
+        <v>2365089446.29661</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06682225884035758</v>
+        <v>0.07876545449364104</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04946929451945168</v>
+        <v>0.04559257036564219</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1527106704.672397</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5166059473.143509</v>
+        <v>3724444627.218043</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1048734462608199</v>
+        <v>0.1584091239425387</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04785105111246519</v>
+        <v>0.04861286701925753</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2583029803.036655</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1834352765.795036</v>
+        <v>1943948604.676126</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1416013430664454</v>
+        <v>0.1118770679524413</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03897647708524652</v>
+        <v>0.05858288478231084</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>917176366.4399903</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3092325510.471046</v>
+        <v>2275817874.808323</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09260139641312935</v>
+        <v>0.1016737239079396</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03929582719672318</v>
+        <v>0.03603486851699266</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>127</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1546162738.326468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5359579591.128771</v>
+        <v>3879045366.871453</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1123842114033034</v>
+        <v>0.1160031009424174</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02132898858214741</v>
+        <v>0.02361978264604838</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>161</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2679789928.108113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1485263522.252665</v>
+        <v>2136450304.311791</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09995301996851233</v>
+        <v>0.0791098662268421</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05167031735095655</v>
+        <v>0.0404704258143895</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>742631790.5153825</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2684052095.50734</v>
+        <v>2925192480.539591</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07551539168005802</v>
+        <v>0.1015425571811693</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03495176956609999</v>
+        <v>0.05062597411629109</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>168</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1342026072.686478</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3179079836.228555</v>
+        <v>2943560513.549183</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1251737532680089</v>
+        <v>0.1603421897378849</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02305061959416829</v>
+        <v>0.03083090662765168</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>151</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1589539968.069859</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2416268060.12165</v>
+        <v>1993300970.526224</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1195863743465352</v>
+        <v>0.1636852955722853</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02639969736408239</v>
+        <v>0.03583747928929328</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1208133955.242878</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5052390163.34359</v>
+        <v>3841171789.233312</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07842091754554091</v>
+        <v>0.09932574489170612</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02093219211632841</v>
+        <v>0.03375606911276922</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2526195110.547981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1861999537.605784</v>
+        <v>1764425259.392769</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1246712847991398</v>
+        <v>0.1640958711696896</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02895325843128315</v>
+        <v>0.03131510610938575</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>930999809.9429363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4792916901.96738</v>
+        <v>3289984231.002717</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1132991631321661</v>
+        <v>0.1279834704307402</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0556448279879983</v>
+        <v>0.04730400130415826</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>154</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2396458359.964837</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1174524107.81406</v>
+        <v>1844513193.176901</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1745561506895263</v>
+        <v>0.1438069637214017</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03041926253615907</v>
+        <v>0.02640108182061869</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>587262031.2200061</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4097476300.777283</v>
+        <v>4894624423.856547</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07446667112757617</v>
+        <v>0.09978056747913225</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03097468538886484</v>
+        <v>0.03533836586144741</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2048738154.741668</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4242964600.840141</v>
+        <v>4761671413.640769</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1330872086356748</v>
+        <v>0.122115901570245</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03047649779898532</v>
+        <v>0.02692327564904328</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2121482272.655902</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4814513672.119915</v>
+        <v>4877150642.605413</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1733825287910861</v>
+        <v>0.2113694371164529</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0288668707069499</v>
+        <v>0.0258326853757147</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>155</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2407256830.378914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2229905285.760778</v>
+        <v>1642369492.692141</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1442164350955523</v>
+        <v>0.132058422848381</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02821280251858265</v>
+        <v>0.04049761873362342</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1114952656.793069</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2242715357.8487</v>
+        <v>2069103135.997957</v>
       </c>
       <c r="F84" t="n">
-        <v>0.119446589582649</v>
+        <v>0.110524788022554</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04530217778205126</v>
+        <v>0.03746576812830348</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1121357648.390135</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2327265405.940213</v>
+        <v>3602364212.358124</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1816014685227496</v>
+        <v>0.1782867960073043</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04933839520665317</v>
+        <v>0.05020827668840893</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>167</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1163632688.870071</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2667163711.204606</v>
+        <v>2032698115.000165</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1434861046690717</v>
+        <v>0.1166519067287131</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02397704838625322</v>
+        <v>0.02197853096163561</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1333581976.010525</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1193094809.041889</v>
+        <v>1385821212.297771</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1170048410494468</v>
+        <v>0.1456999500315498</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03483192050991438</v>
+        <v>0.03308636187961377</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>596547458.3510315</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3299477424.436625</v>
+        <v>2726814902.17847</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1140537451280408</v>
+        <v>0.1767153620735114</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03939163085541689</v>
+        <v>0.02840046717974738</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>176</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1649738772.280908</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3166569528.941883</v>
+        <v>2591623723.309294</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1283342101426102</v>
+        <v>0.1070745354440494</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04117669513671218</v>
+        <v>0.02999980889368884</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>150</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1583284790.402798</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1351550536.556853</v>
+        <v>2097050038.049083</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1079171096402433</v>
+        <v>0.1343446546363762</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03836089157721746</v>
+        <v>0.0385720608461834</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>675775219.8284104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1691915417.741863</v>
+        <v>1848809831.670736</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1785836027459943</v>
+        <v>0.1682052398863618</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0548224091389107</v>
+        <v>0.05115428213035369</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>845957722.2128433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2594518233.356759</v>
+        <v>1828498155.478608</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07777374974264359</v>
+        <v>0.08669720841398572</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04534937276676758</v>
+        <v>0.03816457469663283</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1297259107.777898</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3742068803.891971</v>
+        <v>3031082372.3957</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1173318907030335</v>
+        <v>0.1192085675725304</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05133587760477965</v>
+        <v>0.05220725867448584</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1871034419.242384</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1777825661.365404</v>
+        <v>2093202048.28572</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1312935316995855</v>
+        <v>0.1579903541825986</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02958363371803701</v>
+        <v>0.04277436225142059</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>888912800.1932569</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2568758141.547348</v>
+        <v>2835600586.567011</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08454301400452054</v>
+        <v>0.1347552446744771</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04029160461761161</v>
+        <v>0.03398661304231764</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1284379101.867038</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1689498884.749137</v>
+        <v>1572584265.426665</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1403877855973603</v>
+        <v>0.1267158583935442</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04038149848360687</v>
+        <v>0.04009949358490605</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>844749462.5098588</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4445329719.396589</v>
+        <v>4958908244.909214</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1529000638038144</v>
+        <v>0.1697609326016595</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02020637545265826</v>
+        <v>0.02267585913490577</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>142</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2222664951.902503</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012001339.532314</v>
+        <v>2605796078.32268</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1163750017001811</v>
+        <v>0.1213045460448475</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0216125352461763</v>
+        <v>0.02910828331374102</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1506000655.325207</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2628317060.723804</v>
+        <v>2159175112.757971</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1446517247855195</v>
+        <v>0.1067296237486475</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0244370796951806</v>
+        <v>0.03229497320804709</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>139</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1314158489.4537</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4533390360.692337</v>
+        <v>2973063459.970662</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1086488586394416</v>
+        <v>0.1757149698422212</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02193967903708486</v>
+        <v>0.02180365268389907</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2266695293.62886</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2768539340.802228</v>
+        <v>3217690005.300546</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2205948887669295</v>
+        <v>0.2055487026751804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05079844948778643</v>
+        <v>0.05817024449318979</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>181</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1384269728.862777</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_443.xlsx
+++ b/output/fit_clients/fit_round_443.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1807433991.521393</v>
+        <v>2075876689.598203</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09895207206896479</v>
+        <v>0.1137226125421584</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02898973366050594</v>
+        <v>0.03314215609337519</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1975731059.21079</v>
+        <v>2497490898.798971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1148165947831977</v>
+        <v>0.1567200990387377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04913395318498703</v>
+        <v>0.04296525011056911</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4345515554.56944</v>
+        <v>4991172524.543844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1289008050961195</v>
+        <v>0.1079232649358017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02358171547616906</v>
+        <v>0.02500194511743618</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2874907903.807294</v>
+        <v>2611207861.008231</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08174335426196259</v>
+        <v>0.07002933486734343</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05017540852237051</v>
+        <v>0.0388205258574597</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2544511750.803347</v>
+        <v>1740284587.789812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1179060618608253</v>
+        <v>0.1398513751226846</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0350680792168055</v>
+        <v>0.05303400814607036</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2790625196.96077</v>
+        <v>3087023665.306083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0906797991905785</v>
+        <v>0.08102732382032421</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04808637777618315</v>
+        <v>0.03654031155285248</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2813546564.546451</v>
+        <v>3919149120.12442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2167978430810952</v>
+        <v>0.1456307866735191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02813192120622613</v>
+        <v>0.03052698036822987</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2297971128.304731</v>
+        <v>2226368633.195867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1567938530816401</v>
+        <v>0.179539915852462</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03525004091079181</v>
+        <v>0.02857592057875902</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3626155006.632194</v>
+        <v>3724576724.901625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1862495720445548</v>
+        <v>0.1408906541762303</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0391996411887678</v>
+        <v>0.03439621158817296</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4136922951.902419</v>
+        <v>3635051073.040335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.165157231161277</v>
+        <v>0.1295581435420599</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03744957787995287</v>
+        <v>0.03884254336985409</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3015446157.440174</v>
+        <v>2966321754.91367</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1678958666193401</v>
+        <v>0.1458544258388939</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04276041099686527</v>
+        <v>0.03723766813666887</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3949361833.780095</v>
+        <v>5158859235.907199</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0667069759112953</v>
+        <v>0.09591087464037445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02985004165941139</v>
+        <v>0.02704142377223511</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2949567916.33649</v>
+        <v>3267999347.444478</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1344629085252247</v>
+        <v>0.1665105579635326</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03273237155226306</v>
+        <v>0.03649221863331499</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1811138914.355146</v>
+        <v>1479504490.665454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0847718573645124</v>
+        <v>0.07318431298886363</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0307422613174352</v>
+        <v>0.04138520843498546</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2232447781.598215</v>
+        <v>2873512673.315064</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09428967744615138</v>
+        <v>0.09251463998015891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03329315210803608</v>
+        <v>0.03656214110182976</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4831144288.748992</v>
+        <v>4053091413.645802</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1091691667696968</v>
+        <v>0.1736687056815327</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04056105326686177</v>
+        <v>0.04598872091664298</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3829323844.532051</v>
+        <v>3863671772.614514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1292635928806793</v>
+        <v>0.1219207793930247</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03068680380728462</v>
+        <v>0.02510837685914391</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1365837397.563318</v>
+        <v>995373946.9415989</v>
       </c>
       <c r="F19" t="n">
-        <v>0.168445545505975</v>
+        <v>0.1571571968439493</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01925745350524261</v>
+        <v>0.02104519674164572</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1765801722.855973</v>
+        <v>2450539322.15723</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1089389729640843</v>
+        <v>0.1173245427905743</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02399904850283129</v>
+        <v>0.01926186108904929</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1738118204.167602</v>
+        <v>2503727016.512219</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07993071657037351</v>
+        <v>0.09216520828295463</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04324587443292935</v>
+        <v>0.04055543878187982</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2850463679.791438</v>
+        <v>3357305402.905669</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09482938274371301</v>
+        <v>0.1021320676750489</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04775736831048424</v>
+        <v>0.03954016066315386</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1295392049.980022</v>
+        <v>1513175366.966046</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1837670788335977</v>
+        <v>0.1574009851614355</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04188543358277744</v>
+        <v>0.04898639807022141</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2894573313.973275</v>
+        <v>4149068020.196689</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1277933226206632</v>
+        <v>0.1311506047374108</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0328964597738576</v>
+        <v>0.03201537669343086</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1336177328.643202</v>
+        <v>1197485536.596089</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07678043844188182</v>
+        <v>0.08806074154690106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01985791069427726</v>
+        <v>0.0209061285449044</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>904699679.6283699</v>
+        <v>1030220599.220517</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1115622716697126</v>
+        <v>0.1188467735730371</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0283447474550404</v>
+        <v>0.03402707752654125</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4597158253.692529</v>
+        <v>2882035137.227312</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1206260083573355</v>
+        <v>0.1453105862520289</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02429479567724143</v>
+        <v>0.0260054634139298</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2744281059.261476</v>
+        <v>3660686685.416626</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1330225075790085</v>
+        <v>0.1107245156255185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03172228519610473</v>
+        <v>0.03407085697600963</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4797096690.84833</v>
+        <v>5410315771.49988</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1250104235809373</v>
+        <v>0.1021059300020954</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03410089965440025</v>
+        <v>0.02933328334648886</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1623816082.011504</v>
+        <v>2329156936.663043</v>
       </c>
       <c r="F30" t="n">
-        <v>0.113148961461495</v>
+        <v>0.1065098576927232</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02992572539222926</v>
+        <v>0.03499675758326298</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1087982113.703821</v>
+        <v>1038489216.578573</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07236220019702538</v>
+        <v>0.08220042669588772</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0498184225142412</v>
+        <v>0.04327938700963679</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1454282590.810793</v>
+        <v>1191886675.801389</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1105660052269497</v>
+        <v>0.08444289451839196</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03220021617030109</v>
+        <v>0.0284840804683462</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2954418614.891173</v>
+        <v>2829258149.52741</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1349558586865378</v>
+        <v>0.1385407334283349</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05957631228680768</v>
+        <v>0.0449221137998085</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1438367142.505535</v>
+        <v>1507908330.483236</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07869616751297048</v>
+        <v>0.08222047403314806</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02192085499300022</v>
+        <v>0.02444482647840992</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1238224075.651833</v>
+        <v>1178318041.205743</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1137126168588991</v>
+        <v>0.09550966764642632</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0441812401341514</v>
+        <v>0.03218705573828054</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2410481990.490755</v>
+        <v>2778527400.148496</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1103469819442834</v>
+        <v>0.1129944374089393</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01956175195657808</v>
+        <v>0.02694661430105705</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1997623139.478291</v>
+        <v>2144860018.980036</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1060483270226923</v>
+        <v>0.07759020038767628</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03790219460245299</v>
+        <v>0.02989678456456866</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1377854946.547849</v>
+        <v>2101224763.320144</v>
       </c>
       <c r="F38" t="n">
-        <v>0.118451410258871</v>
+        <v>0.09841142803967801</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03083604435317754</v>
+        <v>0.03538235536561805</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1593324369.320274</v>
+        <v>1793605147.69834</v>
       </c>
       <c r="F39" t="n">
-        <v>0.183909091514228</v>
+        <v>0.1267745930130352</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02873146305892443</v>
+        <v>0.03307334448226621</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1175305252.933896</v>
+        <v>1656307651.373546</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1169072918138605</v>
+        <v>0.152269477089933</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0385033381556077</v>
+        <v>0.04721277696601225</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2311247045.790641</v>
+        <v>1990418897.590147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1029283080246484</v>
+        <v>0.1073662161123834</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04304253156715829</v>
+        <v>0.04194744687594474</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2896016476.129431</v>
+        <v>3007656105.942201</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07933515632393748</v>
+        <v>0.1203742549847303</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03391208242818843</v>
+        <v>0.03770288563187931</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1883853559.903505</v>
+        <v>2300985652.965778</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1884127467199436</v>
+        <v>0.1254601977626357</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02106476798261378</v>
+        <v>0.01689399280293777</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1871249793.669954</v>
+        <v>2350781329.670308</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0766520193427819</v>
+        <v>0.09072769050399442</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03226957159032992</v>
+        <v>0.03012782484108283</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2046668196.071838</v>
+        <v>1582355642.603412</v>
       </c>
       <c r="F45" t="n">
-        <v>0.168839846781422</v>
+        <v>0.1494454159330936</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05319580184245942</v>
+        <v>0.04490418298706462</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3858645833.260921</v>
+        <v>5630710557.859074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1612667276469015</v>
+        <v>0.15392153524654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05866658264068906</v>
+        <v>0.0521803235944531</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4889774413.304535</v>
+        <v>4515517296.394566</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1516507865100679</v>
+        <v>0.14215862283211</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05620420626932714</v>
+        <v>0.05880072278869456</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3342805677.210055</v>
+        <v>4084995201.167339</v>
       </c>
       <c r="F48" t="n">
-        <v>0.104117216506789</v>
+        <v>0.08441307155512105</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02944251146475987</v>
+        <v>0.0373250057445464</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1442963176.373026</v>
+        <v>1593238204.560303</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1367754156192729</v>
+        <v>0.1905640148811187</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02706876146380771</v>
+        <v>0.04148443710314829</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4094831193.01154</v>
+        <v>2766430202.388945</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1738324439588777</v>
+        <v>0.1650673652337334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04819493540181557</v>
+        <v>0.04230228232472806</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1313448108.414673</v>
+        <v>1144113597.522335</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1533915869536404</v>
+        <v>0.1491400625736581</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04126689246192944</v>
+        <v>0.04113407317836837</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4093350055.93019</v>
+        <v>5179527589.227507</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09602015188610753</v>
+        <v>0.135890631012081</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04188736323376083</v>
+        <v>0.04946987271751855</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2560939938.014704</v>
+        <v>3346011108.533024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1496014198954225</v>
+        <v>0.1403662902309838</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0252124986010015</v>
+        <v>0.02253715836729911</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3672065019.564032</v>
+        <v>4441973848.766231</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1079639761286524</v>
+        <v>0.1040495327956664</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03480543478126934</v>
+        <v>0.04010900305620941</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4723074783.633965</v>
+        <v>4629125905.163838</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1993583319169941</v>
+        <v>0.1720541696121226</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01964280890817462</v>
+        <v>0.02846058143581264</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1667036804.715765</v>
+        <v>1502687929.971241</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1210563266246166</v>
+        <v>0.1607271185582914</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04621691452719957</v>
+        <v>0.044082688994065</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4390846064.794575</v>
+        <v>4217417296.978823</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1356910089937623</v>
+        <v>0.1808146995723104</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02213790300869112</v>
+        <v>0.02163237005315885</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1400987081.276945</v>
+        <v>1904454843.065202</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1326107439404806</v>
+        <v>0.1439034149226334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03773537306338765</v>
+        <v>0.02786556049777023</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4579356277.497283</v>
+        <v>4710520694.732063</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1281559237898097</v>
+        <v>0.08569748181987423</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03356876579524489</v>
+        <v>0.04118977089591962</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3564452262.65772</v>
+        <v>3399617783.282203</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1614384153522776</v>
+        <v>0.1860931087963306</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02307632479781956</v>
+        <v>0.02176773048354533</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2214358907.213855</v>
+        <v>2119060573.943116</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1458192226166568</v>
+        <v>0.1333073102408426</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02037422596523313</v>
+        <v>0.02274096623080525</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1425745805.098478</v>
+        <v>1644347303.39705</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1748990026192121</v>
+        <v>0.1872211416975141</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04311074049468191</v>
+        <v>0.04676797110841011</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3587747863.589335</v>
+        <v>3528523873.960892</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08612007420371989</v>
+        <v>0.06970595950332512</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04169802636599312</v>
+        <v>0.03727293638978032</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4033741114.026139</v>
+        <v>4317802669.094076</v>
       </c>
       <c r="F64" t="n">
-        <v>0.162011635393138</v>
+        <v>0.1626193803029259</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02531717333694017</v>
+        <v>0.03437833323388138</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3818938541.739594</v>
+        <v>5169468037.043769</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1689966792946739</v>
+        <v>0.1548944394262236</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03128976569134692</v>
+        <v>0.02058878454733321</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5652504625.941548</v>
+        <v>3911889583.971652</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1353763908916771</v>
+        <v>0.1190686277171528</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04413817841231652</v>
+        <v>0.04706861893514177</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2365089446.29661</v>
+        <v>3255777527.672145</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07876545449364104</v>
+        <v>0.08520174229276964</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04559257036564219</v>
+        <v>0.0318960606199112</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3724444627.218043</v>
+        <v>5658460984.456283</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1584091239425387</v>
+        <v>0.1432620146883054</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04861286701925753</v>
+        <v>0.04543431647346204</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1943948604.676126</v>
+        <v>2258323021.38871</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1118770679524413</v>
+        <v>0.1147469481361811</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05858288478231084</v>
+        <v>0.05858486953746286</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2275817874.808323</v>
+        <v>2772926939.866914</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1016737239079396</v>
+        <v>0.08894362037800385</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03603486851699266</v>
+        <v>0.03653511528235127</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3879045366.871453</v>
+        <v>4191421500.397464</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1160031009424174</v>
+        <v>0.1513695402449169</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02361978264604838</v>
+        <v>0.03283732444829024</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2136450304.311791</v>
+        <v>1610119121.863961</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0791098662268421</v>
+        <v>0.1040066043965456</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0404704258143895</v>
+        <v>0.03938714512167783</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2925192480.539591</v>
+        <v>2484192851.797246</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1015425571811693</v>
+        <v>0.08318511784093217</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05062597411629109</v>
+        <v>0.04654136587812916</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2943560513.549183</v>
+        <v>2673847762.088406</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1603421897378849</v>
+        <v>0.1279590268110173</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03083090662765168</v>
+        <v>0.02823676279808122</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1993300970.526224</v>
+        <v>2015992081.142308</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1636852955722853</v>
+        <v>0.1137294982887197</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03583747928929328</v>
+        <v>0.02415469593986358</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3841171789.233312</v>
+        <v>4226988109.536593</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09932574489170612</v>
+        <v>0.1247210689814593</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03375606911276922</v>
+        <v>0.0209146712643323</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1764425259.392769</v>
+        <v>1568447511.227967</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1640958711696896</v>
+        <v>0.1346865391279811</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03131510610938575</v>
+        <v>0.02429947937174971</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3289984231.002717</v>
+        <v>3399543000.709198</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1279834704307402</v>
+        <v>0.1170963559555662</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04730400130415826</v>
+        <v>0.05444347129587167</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1844513193.176901</v>
+        <v>1480920480.710183</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1438069637214017</v>
+        <v>0.1559233047939067</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02640108182061869</v>
+        <v>0.03625007574341108</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4894624423.856547</v>
+        <v>5254852183.864969</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09978056747913225</v>
+        <v>0.1094463481196062</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03533836586144741</v>
+        <v>0.03252060311024914</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4761671413.640769</v>
+        <v>4241210522.311076</v>
       </c>
       <c r="F81" t="n">
-        <v>0.122115901570245</v>
+        <v>0.1236980300543748</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02692327564904328</v>
+        <v>0.02063980125410502</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4877150642.605413</v>
+        <v>4608056813.822413</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2113694371164529</v>
+        <v>0.169018949735562</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0258326853757147</v>
+        <v>0.01914026815538357</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1642369492.692141</v>
+        <v>2358236653.546047</v>
       </c>
       <c r="F83" t="n">
-        <v>0.132058422848381</v>
+        <v>0.1309758808159414</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04049761873362342</v>
+        <v>0.04425968165544559</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2069103135.997957</v>
+        <v>1698012963.120856</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110524788022554</v>
+        <v>0.1199777027302704</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03746576812830348</v>
+        <v>0.03466556676160774</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3602364212.358124</v>
+        <v>2491469402.903778</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1782867960073043</v>
+        <v>0.1692863143745721</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05020827668840893</v>
+        <v>0.05563345510720192</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2032698115.000165</v>
+        <v>2362514490.890794</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1166519067287131</v>
+        <v>0.1364775023336663</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02197853096163561</v>
+        <v>0.02057767304072896</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1385821212.297771</v>
+        <v>1383569825.263045</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1456999500315498</v>
+        <v>0.153421983441628</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03308636187961377</v>
+        <v>0.03945228202630582</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2726814902.17847</v>
+        <v>2738110681.41612</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1767153620735114</v>
+        <v>0.1266414509086486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02840046717974738</v>
+        <v>0.03962684361736488</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2591623723.309294</v>
+        <v>3044104726.530928</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1070745354440494</v>
+        <v>0.1551203966994421</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02999980889368884</v>
+        <v>0.02918633428786131</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2097050038.049083</v>
+        <v>1538800209.316487</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1343446546363762</v>
+        <v>0.101597334911892</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0385720608461834</v>
+        <v>0.05154161820738849</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1848809831.670736</v>
+        <v>2025157884.001519</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1682052398863618</v>
+        <v>0.1362317746012308</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05115428213035369</v>
+        <v>0.05926327764340301</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1828498155.478608</v>
+        <v>2097183231.165571</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08669720841398572</v>
+        <v>0.1026116049319412</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03816457469663283</v>
+        <v>0.04673919927220146</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3031082372.3957</v>
+        <v>4404604748.728397</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1192085675725304</v>
+        <v>0.1122759695615741</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05220725867448584</v>
+        <v>0.03621548029420023</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2093202048.28572</v>
+        <v>2340623443.781859</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1579903541825986</v>
+        <v>0.1130616463098822</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04277436225142059</v>
+        <v>0.03169816798098263</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2835600586.567011</v>
+        <v>2596843620.96899</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1347552446744771</v>
+        <v>0.1008735316383763</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03398661304231764</v>
+        <v>0.03245382582727931</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1572584265.426665</v>
+        <v>1877580138.02177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1267158583935442</v>
+        <v>0.08716677812012083</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04009949358490605</v>
+        <v>0.04224084725203522</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4958908244.909214</v>
+        <v>4396886556.852346</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1697609326016595</v>
+        <v>0.1216788020508602</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02267585913490577</v>
+        <v>0.0204120915009286</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2605796078.32268</v>
+        <v>3112961961.594246</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1213045460448475</v>
+        <v>0.1239468297470149</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02910828331374102</v>
+        <v>0.03111760533243286</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2159175112.757971</v>
+        <v>3303084630.988323</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1067296237486475</v>
+        <v>0.1476511192347467</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03229497320804709</v>
+        <v>0.02291103796293312</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2973063459.970662</v>
+        <v>3963524464.828134</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1757149698422212</v>
+        <v>0.1391373994861419</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02180365268389907</v>
+        <v>0.01762316488854895</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3217690005.300546</v>
+        <v>3254014704.074733</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2055487026751804</v>
+        <v>0.1851822173813147</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05817024449318979</v>
+        <v>0.04178264039195227</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_443.xlsx
+++ b/output/fit_clients/fit_round_443.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2075876689.598203</v>
+        <v>1706665235.114258</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137226125421584</v>
+        <v>0.07092161497158676</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03314215609337519</v>
+        <v>0.04523958446291775</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2497490898.798971</v>
+        <v>2477928807.388455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1567200990387377</v>
+        <v>0.1628672937801936</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04296525011056911</v>
+        <v>0.03896622238169549</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4991172524.543844</v>
+        <v>3994578664.603565</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1079232649358017</v>
+        <v>0.109747687662363</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02500194511743618</v>
+        <v>0.03439606493656102</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>443</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2611207861.008231</v>
+        <v>4178958754.518397</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07002933486734343</v>
+        <v>0.06824511436197926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0388205258574597</v>
+        <v>0.04010923641062399</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>184</v>
+      </c>
+      <c r="J5" t="n">
+        <v>443</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1740284587.789812</v>
+        <v>2674195008.689307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1398513751226846</v>
+        <v>0.1324796520707486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05303400814607036</v>
+        <v>0.04087953104327462</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3087023665.306083</v>
+        <v>2756647478.691473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08102732382032421</v>
+        <v>0.08069530884058262</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03654031155285248</v>
+        <v>0.04064630367071177</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3919149120.12442</v>
+        <v>2535558860.43049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1456307866735191</v>
+        <v>0.1500518297942662</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03052698036822987</v>
+        <v>0.0228388960853023</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>121</v>
+      </c>
+      <c r="J8" t="n">
+        <v>442</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.96937345644798</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2226368633.195867</v>
+        <v>1417962234.066401</v>
       </c>
       <c r="F9" t="n">
-        <v>0.179539915852462</v>
+        <v>0.1903083799381649</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02857592057875902</v>
+        <v>0.02996390753504918</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3724576724.901625</v>
+        <v>5186634572.867589</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1408906541762303</v>
+        <v>0.1931335342737618</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03439621158817296</v>
+        <v>0.0481232520748712</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>346</v>
+      </c>
+      <c r="J10" t="n">
+        <v>443</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3635051073.040335</v>
+        <v>2594895543.940311</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1295581435420599</v>
+        <v>0.1592893211380644</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03884254336985409</v>
+        <v>0.03952788551677714</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" t="n">
+        <v>441</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2966321754.91367</v>
+        <v>2034802289.090132</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1458544258388939</v>
+        <v>0.1463096908024374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03723766813666887</v>
+        <v>0.0349255967159663</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5158859235.907199</v>
+        <v>4320594686.819736</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09591087464037445</v>
+        <v>0.07631884991735717</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02704142377223511</v>
+        <v>0.01944221541127843</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>230</v>
+      </c>
+      <c r="J13" t="n">
+        <v>442</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36.65881838933289</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3267999347.444478</v>
+        <v>3857192568.576592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1665105579635326</v>
+        <v>0.1773539493331418</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03649221863331499</v>
+        <v>0.04084198160687538</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>96</v>
+      </c>
+      <c r="J14" t="n">
+        <v>443</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1479504490.665454</v>
+        <v>1469880779.742182</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07318431298886363</v>
+        <v>0.1094691089810695</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04138520843498546</v>
+        <v>0.02986029368958323</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2873512673.315064</v>
+        <v>2068215332.09846</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09251463998015891</v>
+        <v>0.1005643298419955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03656214110182976</v>
+        <v>0.03780146262819602</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4053091413.645802</v>
+        <v>4450366659.962976</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1736687056815327</v>
+        <v>0.1133000405841865</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04598872091664298</v>
+        <v>0.05307599421147747</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>215</v>
+      </c>
+      <c r="J17" t="n">
+        <v>443</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3863671772.614514</v>
+        <v>3010308889.865239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1219207793930247</v>
+        <v>0.1641558059040083</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02510837685914391</v>
+        <v>0.0274485120076696</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>115</v>
+      </c>
+      <c r="J18" t="n">
+        <v>441</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>995373946.9415989</v>
+        <v>1066317582.362635</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1571571968439493</v>
+        <v>0.1439337731077264</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02104519674164572</v>
+        <v>0.02257597646257762</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2450539322.15723</v>
+        <v>2180138101.419589</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1173245427905743</v>
+        <v>0.1134811465566906</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01926186108904929</v>
+        <v>0.02741465364389509</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2503727016.512219</v>
+        <v>2369251715.232757</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09216520828295463</v>
+        <v>0.07702213813293131</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04055543878187982</v>
+        <v>0.04274997925692059</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3357305402.905669</v>
+        <v>2481272398.238676</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021320676750489</v>
+        <v>0.09945373127425816</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03954016066315386</v>
+        <v>0.05644700957786408</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1513175366.966046</v>
+        <v>1119471602.730793</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1574009851614355</v>
+        <v>0.1526002725794304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04898639807022141</v>
+        <v>0.03328070302890732</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4149068020.196689</v>
+        <v>4031603825.569121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1311506047374108</v>
+        <v>0.1017007610484563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03201537669343086</v>
+        <v>0.02663089126161913</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>140</v>
+      </c>
+      <c r="J24" t="n">
+        <v>443</v>
+      </c>
+      <c r="K24" t="n">
+        <v>45.11042418764426</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1197485536.596089</v>
+        <v>1126071770.758174</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08806074154690106</v>
+        <v>0.1049743421608864</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0209061285449044</v>
+        <v>0.02414460124888453</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1030220599.220517</v>
+        <v>1099569377.38682</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1188467735730371</v>
+        <v>0.1197437294067719</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03402707752654125</v>
+        <v>0.03384574836534542</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2882035137.227312</v>
+        <v>3887795656.51966</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1453105862520289</v>
+        <v>0.1325169027276695</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0260054634139298</v>
+        <v>0.01789019315517721</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>192</v>
+      </c>
+      <c r="J27" t="n">
+        <v>443</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3660686685.416626</v>
+        <v>2565036871.616724</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1107245156255185</v>
+        <v>0.1321894193630755</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03407085697600963</v>
+        <v>0.04179850386701192</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5410315771.49988</v>
+        <v>5728469037.16294</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1021059300020954</v>
+        <v>0.1188963876012589</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02933328334648886</v>
+        <v>0.03590412578263321</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>362</v>
+      </c>
+      <c r="J29" t="n">
+        <v>443</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2329156936.663043</v>
+        <v>1487555609.367362</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1065098576927232</v>
+        <v>0.09265552283987079</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03499675758326298</v>
+        <v>0.04005244642962025</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1038489216.578573</v>
+        <v>1148717016.561095</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08220042669588772</v>
+        <v>0.08497486557757042</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04327938700963679</v>
+        <v>0.04285858994381731</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1191886675.801389</v>
+        <v>1866442163.310223</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08444289451839196</v>
+        <v>0.07490047192387171</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0284840804683462</v>
+        <v>0.03807056052300369</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2829258149.52741</v>
+        <v>2613438620.332432</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1385407334283349</v>
+        <v>0.1427152613523049</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0449221137998085</v>
+        <v>0.06001466640141929</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1507908330.483236</v>
+        <v>1278282486.976323</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08222047403314806</v>
+        <v>0.100965307936107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02444482647840992</v>
+        <v>0.01865079090910557</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1178318041.205743</v>
+        <v>958195108.1032604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09550966764642632</v>
+        <v>0.1125611564551049</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03218705573828054</v>
+        <v>0.0335243597600857</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2778527400.148496</v>
+        <v>2154544188.111068</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1129944374089393</v>
+        <v>0.1515163728707227</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02694661430105705</v>
+        <v>0.02117682295058462</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2144860018.980036</v>
+        <v>1886011790.783947</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07759020038767628</v>
+        <v>0.09775551970505097</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02989678456456866</v>
+        <v>0.03804663062454818</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2101224763.320144</v>
+        <v>2101321984.255134</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09841142803967801</v>
+        <v>0.1107758495638895</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03538235536561805</v>
+        <v>0.03968650285414731</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1793605147.69834</v>
+        <v>1510762655.162037</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1267745930130352</v>
+        <v>0.1536579448420614</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03307334448226621</v>
+        <v>0.02860928435189492</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1656307651.373546</v>
+        <v>1645016969.94107</v>
       </c>
       <c r="F40" t="n">
-        <v>0.152269477089933</v>
+        <v>0.1422660284973616</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04721277696601225</v>
+        <v>0.04487163701524643</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1990418897.590147</v>
+        <v>1764823434.706412</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1073662161123834</v>
+        <v>0.1313182925792726</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04194744687594474</v>
+        <v>0.02960593517977955</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1907,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3007656105.942201</v>
+        <v>3547156263.525621</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1203742549847303</v>
+        <v>0.1232126420524325</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03770288563187931</v>
+        <v>0.03429469987115177</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>192</v>
+      </c>
+      <c r="J42" t="n">
+        <v>442</v>
+      </c>
+      <c r="K42" t="n">
+        <v>35.3721854662839</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2300985652.965778</v>
+        <v>2192622302.054527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1254601977626357</v>
+        <v>0.1849306403555249</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01689399280293777</v>
+        <v>0.01614772490856409</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2350781329.670308</v>
+        <v>2268380345.009892</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09072769050399442</v>
+        <v>0.07742321906613893</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03012782484108283</v>
+        <v>0.02808451411453883</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1582355642.603412</v>
+        <v>2039635997.978023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1494454159330936</v>
+        <v>0.1474351412719525</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04490418298706462</v>
+        <v>0.05058597101900138</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5630710557.859074</v>
+        <v>4699459626.417286</v>
       </c>
       <c r="F46" t="n">
-        <v>0.15392153524654</v>
+        <v>0.1570472426466614</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0521803235944531</v>
+        <v>0.04450283594384275</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>263</v>
+      </c>
+      <c r="J46" t="n">
+        <v>443</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2084,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4515517296.394566</v>
+        <v>4063511264.300234</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14215862283211</v>
+        <v>0.2037240606638402</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05880072278869456</v>
+        <v>0.04321759067571114</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>199</v>
+      </c>
+      <c r="J47" t="n">
+        <v>443</v>
+      </c>
+      <c r="K47" t="n">
+        <v>38.10891958287947</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4084995201.167339</v>
+        <v>3388631136.069648</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08441307155512105</v>
+        <v>0.08577086106003655</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0373250057445464</v>
+        <v>0.02959502663620541</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>223</v>
+      </c>
+      <c r="J48" t="n">
+        <v>442</v>
+      </c>
+      <c r="K48" t="n">
+        <v>28.58679624406313</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1593238204.560303</v>
+        <v>1243841241.188388</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1905640148811187</v>
+        <v>0.1512317806921168</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04148443710314829</v>
+        <v>0.03133932695504969</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2766430202.388945</v>
+        <v>3903563606.53731</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1650673652337334</v>
+        <v>0.1677437702517363</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04230228232472806</v>
+        <v>0.04677811385328835</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>157</v>
+      </c>
+      <c r="J50" t="n">
+        <v>443</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.82188138998273</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1144113597.522335</v>
+        <v>1215332018.794166</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1491400625736581</v>
+        <v>0.1778216915359231</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04113407317836837</v>
+        <v>0.03455038374307434</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5179527589.227507</v>
+        <v>3290901120.632308</v>
       </c>
       <c r="F52" t="n">
-        <v>0.135890631012081</v>
+        <v>0.09742038608258247</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04946987271751855</v>
+        <v>0.05210433533310122</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>253</v>
+      </c>
+      <c r="J52" t="n">
+        <v>442</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25.62726989690188</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3346011108.533024</v>
+        <v>3765218830.890742</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1403662902309838</v>
+        <v>0.150950636234039</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02253715836729911</v>
+        <v>0.0333975051275175</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4441973848.766231</v>
+        <v>3793726843.528228</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1040495327956664</v>
+        <v>0.1687176661289691</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04010900305620941</v>
+        <v>0.04292500463498063</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>234</v>
+      </c>
+      <c r="J54" t="n">
+        <v>441</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4629125905.163838</v>
+        <v>3965245409.200982</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1720541696121226</v>
+        <v>0.1676088516452353</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02846058143581264</v>
+        <v>0.02439415795867022</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>220</v>
+      </c>
+      <c r="J55" t="n">
+        <v>442</v>
+      </c>
+      <c r="K55" t="n">
+        <v>37.81198514245094</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1502687929.971241</v>
+        <v>1527608387.745784</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1607271185582914</v>
+        <v>0.1216844186997824</v>
       </c>
       <c r="G56" t="n">
-        <v>0.044082688994065</v>
+        <v>0.05616131931150681</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4217417296.978823</v>
+        <v>3729436991.889393</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1808146995723104</v>
+        <v>0.1368500856700171</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02163237005315885</v>
+        <v>0.02733593250167912</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>192</v>
+      </c>
+      <c r="J57" t="n">
+        <v>441</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1904454843.065202</v>
+        <v>1522732895.298329</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1439034149226334</v>
+        <v>0.155670449040093</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02786556049777023</v>
+        <v>0.02550474247061928</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4710520694.732063</v>
+        <v>4666741004.027311</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08569748181987423</v>
+        <v>0.105438462162852</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04118977089591962</v>
+        <v>0.03560424991078723</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>216</v>
+      </c>
+      <c r="J59" t="n">
+        <v>443</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3399617783.282203</v>
+        <v>2854910737.774093</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1860931087963306</v>
+        <v>0.1574797910465134</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02176773048354533</v>
+        <v>0.02975238215168883</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2119060573.943116</v>
+        <v>2255179890.594156</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1333073102408426</v>
+        <v>0.172265143357115</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02274096623080525</v>
+        <v>0.02734430178333339</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1644347303.39705</v>
+        <v>1861474529.996933</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1872211416975141</v>
+        <v>0.1617373239901246</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04676797110841011</v>
+        <v>0.03034888112632824</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3528523873.960892</v>
+        <v>4275743693.510897</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06970595950332512</v>
+        <v>0.09958429923387099</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03727293638978032</v>
+        <v>0.04157346554499457</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>221</v>
+      </c>
+      <c r="J63" t="n">
+        <v>442</v>
+      </c>
+      <c r="K63" t="n">
+        <v>34.53836220191533</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4317802669.094076</v>
+        <v>4208815807.747464</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1626193803029259</v>
+        <v>0.1783670544138486</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03437833323388138</v>
+        <v>0.02743745501705083</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>222</v>
+      </c>
+      <c r="J64" t="n">
+        <v>442</v>
+      </c>
+      <c r="K64" t="n">
+        <v>36.19047399340811</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5169468037.043769</v>
+        <v>4085607303.975686</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1548944394262236</v>
+        <v>0.1220622139318146</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02058878454733321</v>
+        <v>0.02433655099991763</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>319</v>
+      </c>
+      <c r="J65" t="n">
+        <v>442</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.19099226943624</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3911889583.971652</v>
+        <v>5214408854.439891</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1190686277171528</v>
+        <v>0.12792902433679</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04706861893514177</v>
+        <v>0.04754735535568027</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>218</v>
+      </c>
+      <c r="J66" t="n">
+        <v>443</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3255777527.672145</v>
+        <v>3206448635.730937</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08520174229276964</v>
+        <v>0.09127835882159771</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0318960606199112</v>
+        <v>0.05090709008136587</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2835,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5658460984.456283</v>
+        <v>4353665160.106667</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1432620146883054</v>
+        <v>0.1450556405938821</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04543431647346204</v>
+        <v>0.04188308148734209</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>241</v>
+      </c>
+      <c r="J68" t="n">
+        <v>443</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2258323021.38871</v>
+        <v>1680943793.125435</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1147469481361811</v>
+        <v>0.1129403550085124</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05858486953746286</v>
+        <v>0.03911213338578969</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2772926939.866914</v>
+        <v>3542457721.223619</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08894362037800385</v>
+        <v>0.09942738278312908</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03653511528235127</v>
+        <v>0.03961203296036367</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4191421500.397464</v>
+        <v>4368453084.540256</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1513695402449169</v>
+        <v>0.1313597954782866</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03283732444829024</v>
+        <v>0.02343331045690007</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>305</v>
+      </c>
+      <c r="J71" t="n">
+        <v>442</v>
+      </c>
+      <c r="K71" t="n">
+        <v>36.70111380327304</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1610119121.863961</v>
+        <v>2274535250.641548</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1040066043965456</v>
+        <v>0.08638978737181055</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03938714512167783</v>
+        <v>0.042926965121259</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2484192851.797246</v>
+        <v>3130670439.496017</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08318511784093217</v>
+        <v>0.07557472897917225</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04654136587812916</v>
+        <v>0.04310314319989294</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="n">
+        <v>49.42530798419011</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2673847762.088406</v>
+        <v>4016219144.444225</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1279590268110173</v>
+        <v>0.168896841499206</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02823676279808122</v>
+        <v>0.02964938494897415</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>443</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2015992081.142308</v>
+        <v>2197937713.034657</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1137294982887197</v>
+        <v>0.152176143900479</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02415469593986358</v>
+        <v>0.02611130426157727</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4226988109.536593</v>
+        <v>4595447367.123838</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247210689814593</v>
+        <v>0.09964235005470257</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0209146712643323</v>
+        <v>0.02091823041952956</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>211</v>
+      </c>
+      <c r="J76" t="n">
+        <v>443</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1568447511.227967</v>
+        <v>1551470973.153587</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1346865391279811</v>
+        <v>0.1743780010256543</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02429947937174971</v>
+        <v>0.02024390506987843</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3399543000.709198</v>
+        <v>4036530934.905882</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1170963559555662</v>
+        <v>0.1151797510311938</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05444347129587167</v>
+        <v>0.05054174371779221</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>222</v>
+      </c>
+      <c r="J78" t="n">
+        <v>442</v>
+      </c>
+      <c r="K78" t="n">
+        <v>35.6935701798571</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1480920480.710183</v>
+        <v>1622999075.530535</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1559233047939067</v>
+        <v>0.1318382226698133</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03625007574341108</v>
+        <v>0.03178547406596341</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5254852183.864969</v>
+        <v>3488156522.851756</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1094463481196062</v>
+        <v>0.08276030679209166</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03252060311024914</v>
+        <v>0.03225945815674221</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>216</v>
+      </c>
+      <c r="J80" t="n">
+        <v>442</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.34811624158166</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4241210522.311076</v>
+        <v>4950535528.964066</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1236980300543748</v>
+        <v>0.1353291920275047</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02063980125410502</v>
+        <v>0.02903346909057842</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>206</v>
+      </c>
+      <c r="J81" t="n">
+        <v>442</v>
+      </c>
+      <c r="K81" t="n">
+        <v>35.92672258448743</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4608056813.822413</v>
+        <v>3489507556.30167</v>
       </c>
       <c r="F82" t="n">
-        <v>0.169018949735562</v>
+        <v>0.2158207590231039</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01914026815538357</v>
+        <v>0.02223062279244035</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>297</v>
+      </c>
+      <c r="J82" t="n">
+        <v>442</v>
+      </c>
+      <c r="K82" t="n">
+        <v>27.41015277198589</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2358236653.546047</v>
+        <v>2248663042.885236</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1309758808159414</v>
+        <v>0.1018110374713775</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04425968165544559</v>
+        <v>0.02894047685235714</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1698012963.120856</v>
+        <v>1861003531.642035</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1199777027302704</v>
+        <v>0.1077413903818825</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03466556676160774</v>
+        <v>0.0331477406252675</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2491469402.903778</v>
+        <v>2558283153.394847</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1692863143745721</v>
+        <v>0.1217726336979239</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05563345510720192</v>
+        <v>0.05293375909558978</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2362514490.890794</v>
+        <v>1780584699.147462</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1364775023336663</v>
+        <v>0.1335708201225472</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02057767304072896</v>
+        <v>0.02276131053224054</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1383569825.263045</v>
+        <v>1472141698.644409</v>
       </c>
       <c r="F87" t="n">
-        <v>0.153421983441628</v>
+        <v>0.1195608279862544</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03945228202630582</v>
+        <v>0.04036237775195035</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2738110681.41612</v>
+        <v>2460880426.763556</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1266414509086486</v>
+        <v>0.1169852397920666</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03962684361736488</v>
+        <v>0.02778036202683728</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3044104726.530928</v>
+        <v>3276193456.238317</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1551203966994421</v>
+        <v>0.1096625043693288</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02918633428786131</v>
+        <v>0.03660288534861023</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1538800209.316487</v>
+        <v>2132015937.166252</v>
       </c>
       <c r="F90" t="n">
-        <v>0.101597334911892</v>
+        <v>0.1284712750174665</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05154161820738849</v>
+        <v>0.05300106601206259</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2025157884.001519</v>
+        <v>1368126095.639334</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1362317746012308</v>
+        <v>0.1650500160514648</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05926327764340301</v>
+        <v>0.04821189317892593</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2097183231.165571</v>
+        <v>2144343357.306284</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1026116049319412</v>
+        <v>0.08109446706747972</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04673919927220146</v>
+        <v>0.04492505999149581</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4404604748.728397</v>
+        <v>4302289798.323274</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1122759695615741</v>
+        <v>0.1253585840605736</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03621548029420023</v>
+        <v>0.04654571218239819</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>212</v>
+      </c>
+      <c r="J93" t="n">
+        <v>443</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2340623443.781859</v>
+        <v>2112767021.043445</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1130616463098822</v>
+        <v>0.1620636683101014</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03169816798098263</v>
+        <v>0.03097081742835218</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2596843620.96899</v>
+        <v>2951599767.523486</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1008735316383763</v>
+        <v>0.134983546291129</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03245382582727931</v>
+        <v>0.04838978310024476</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1877580138.02177</v>
+        <v>2066496315.272978</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08716677812012083</v>
+        <v>0.1411698089663165</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04224084725203522</v>
+        <v>0.03194257684363581</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4396886556.852346</v>
+        <v>4160951063.071371</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1216788020508602</v>
+        <v>0.1218660186051426</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0204120915009286</v>
+        <v>0.02521552273778214</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>232</v>
+      </c>
+      <c r="J97" t="n">
+        <v>442</v>
+      </c>
+      <c r="K97" t="n">
+        <v>36.04092841240853</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3112961961.594246</v>
+        <v>2691378092.376782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1239468297470149</v>
+        <v>0.0820243592524279</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03111760533243286</v>
+        <v>0.03156204313657544</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3303084630.988323</v>
+        <v>3310761349.905006</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1476511192347467</v>
+        <v>0.1334365510731957</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02291103796293312</v>
+        <v>0.0259936135066544</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3963524464.828134</v>
+        <v>4127931740.314626</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1391373994861419</v>
+        <v>0.169341726493803</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01762316488854895</v>
+        <v>0.02667834154295936</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>205</v>
+      </c>
+      <c r="J100" t="n">
+        <v>443</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3254014704.074733</v>
+        <v>2799009783.935945</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1851822173813147</v>
+        <v>0.1405236232252116</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04178264039195227</v>
+        <v>0.04311238537630679</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>43</v>
+      </c>
+      <c r="J101" t="n">
+        <v>443</v>
+      </c>
+      <c r="K101" t="n">
+        <v>38.46897094769688</v>
       </c>
     </row>
   </sheetData>
